--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -266,6 +266,9 @@
   <si>
     <t>1.完成《watchlist-fastapi》p15</t>
   </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p16</t>
+  </si>
 </sst>
 </file>
 
@@ -274,9 +277,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -304,30 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,15 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -356,7 +336,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -373,7 +353,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,30 +390,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +406,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +426,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -484,37 +487,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,91 +643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,49 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +733,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,10 +781,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,56 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -832,142 +835,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2608,7 +2611,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -2721,7 +2724,9 @@
       <c r="B10" s="3">
         <v>44721</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>1.完成《watchlist-fastapi》p16</t>
+  </si>
+  <si>
+    <t>1.函数定义的三种方式</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2614,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -2727,7 +2730,9 @@
       <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7845" activeTab="4"/>
+    <workbookView windowWidth="19380" windowHeight="7845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="To Do List" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -272,6 +272,16 @@
   <si>
     <t>1.函数定义的三种方式</t>
   </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p17
+2.watchlists首页</t>
+  </si>
+  <si>
+    <t>1.实现watchlists退出页面</t>
+  </si>
+  <si>
+    <t>1.实现watchlists登录页</t>
+  </si>
 </sst>
 </file>
 
@@ -279,10 +289,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,32 +319,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,6 +353,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,14 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -392,17 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,8 +409,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,15 +448,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,25 +500,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,25 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,67 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,55 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,6 +779,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,6 +805,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,182 +843,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,6 +1024,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,9 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1459,7 +1469,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.1" customWidth="1"/>
   </cols>
@@ -1512,238 +1522,238 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="40"/>
-    <col min="3" max="3" width="68.6" style="40" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="40"/>
+    <col min="1" max="2" width="8.8" style="41"/>
+    <col min="3" max="3" width="68.6" style="41" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="42">
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="43">
         <v>12</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <v>44637</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43">
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44">
         <v>44638</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="31.5" spans="1:5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43">
+    <row r="5" ht="33" spans="1:5">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44">
         <v>44639</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" ht="47.25" spans="1:5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" ht="49.5" spans="1:5">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>44640</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="46">
         <v>13</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <v>44641</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="46"/>
-      <c r="B8" s="43">
+      <c r="B8" s="44">
         <v>44642</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="46"/>
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>44643</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="46"/>
-      <c r="B10" s="43">
+      <c r="B10" s="44">
         <v>44644</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="46"/>
-      <c r="B11" s="43">
+      <c r="B11" s="44">
         <v>44645</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="45"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="46"/>
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <v>44646</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" ht="63" spans="1:5">
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" ht="66" spans="1:5">
       <c r="A13" s="46"/>
-      <c r="B13" s="43">
+      <c r="B13" s="44">
         <v>44647</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="47">
         <v>14</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="44">
         <v>44648</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" ht="47.25" spans="1:5">
+      <c r="D14" s="10"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" ht="49.5" spans="1:5">
       <c r="A15" s="47"/>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>44649</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" ht="31.5" spans="1:5">
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" ht="33" spans="1:5">
       <c r="A16" s="47"/>
-      <c r="B16" s="43">
+      <c r="B16" s="44">
         <v>44650</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="41"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="47"/>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <v>44651</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="48"/>
@@ -1804,7 +1814,7 @@
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.8" customWidth="1"/>
     <col min="2" max="2" width="8.7" customWidth="1"/>
@@ -1829,10 +1839,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1843,148 +1853,148 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="47.25" spans="1:5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17">
+    <row r="3" ht="49.5" spans="1:5">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18">
         <v>44653</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="31.5" spans="1:5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17">
+    <row r="4" ht="33" spans="1:5">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18">
         <v>44654</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="31.5" spans="1:5">
-      <c r="A5" s="36" t="s">
+    <row r="5" ht="33" spans="1:5">
+      <c r="A5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>44655</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="17">
+      <c r="A6" s="37"/>
+      <c r="B6" s="18">
         <v>44656</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36"/>
-      <c r="B7" s="17">
+      <c r="A7" s="37"/>
+      <c r="B7" s="18">
         <v>44657</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="17">
+      <c r="A8" s="37"/>
+      <c r="B8" s="18">
         <v>44658</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="17">
+      <c r="A9" s="37"/>
+      <c r="B9" s="18">
         <v>44659</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="17">
+      <c r="A10" s="37"/>
+      <c r="B10" s="18">
         <v>44660</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="36"/>
-      <c r="B11" s="17">
+      <c r="A11" s="37"/>
+      <c r="B11" s="18">
         <v>44661</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="37">
+      <c r="A12" s="38">
         <v>16</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>44662</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="17">
+      <c r="A13" s="38"/>
+      <c r="B13" s="18">
         <v>44663</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="37"/>
-      <c r="B14" s="17">
+      <c r="A14" s="38"/>
+      <c r="B14" s="18">
         <v>44664</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1992,164 +2002,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="17">
+      <c r="A15" s="38"/>
+      <c r="B15" s="18">
         <v>44665</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="31.5" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="17">
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="18">
         <v>44666</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="17">
+      <c r="A17" s="38"/>
+      <c r="B17" s="18">
         <v>44667</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="17">
+      <c r="A18" s="38"/>
+      <c r="B18" s="18">
         <v>44668</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38">
+      <c r="A19" s="39">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>44669</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="17">
+      <c r="A20" s="39"/>
+      <c r="B20" s="18">
         <v>44670</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="17">
+      <c r="A21" s="39"/>
+      <c r="B21" s="18">
         <v>44671</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="17">
+      <c r="A22" s="39"/>
+      <c r="B22" s="18">
         <v>44672</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="38"/>
-      <c r="B23" s="17">
+      <c r="A23" s="39"/>
+      <c r="B23" s="18">
         <v>44673</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="38"/>
-      <c r="B24" s="17">
+      <c r="A24" s="39"/>
+      <c r="B24" s="18">
         <v>44674</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="38"/>
-      <c r="B25" s="17">
+      <c r="A25" s="39"/>
+      <c r="B25" s="18">
         <v>44675</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="39">
+      <c r="A26" s="40">
         <v>18</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="18">
         <v>44676</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="39"/>
-      <c r="B27" s="17">
+      <c r="A27" s="40"/>
+      <c r="B27" s="18">
         <v>44677</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2157,56 +2167,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="39"/>
-      <c r="B28" s="17">
+      <c r="A28" s="40"/>
+      <c r="B28" s="18">
         <v>44678</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="39"/>
-      <c r="B29" s="17">
+      <c r="A29" s="40"/>
+      <c r="B29" s="18">
         <v>44679</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="39"/>
-      <c r="B30" s="17">
+      <c r="A30" s="40"/>
+      <c r="B30" s="18">
         <v>44680</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="39"/>
-      <c r="B31" s="17">
+      <c r="A31" s="40"/>
+      <c r="B31" s="18">
         <v>44681</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2230,7 +2240,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.8" customWidth="1"/>
     <col min="2" max="2" width="8.7" customWidth="1"/>
@@ -2255,10 +2265,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2270,319 +2280,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>20</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="17">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="17">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17">
+      <c r="A13" s="25"/>
+      <c r="B13" s="18">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17">
+      <c r="A14" s="25"/>
+      <c r="B14" s="18">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="17">
+      <c r="A15" s="25"/>
+      <c r="B15" s="18">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>21</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>44697</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="17">
+      <c r="A18" s="28"/>
+      <c r="B18" s="18">
         <v>44698</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="17">
+      <c r="A19" s="28"/>
+      <c r="B19" s="18">
         <v>44699</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="17">
+      <c r="A20" s="28"/>
+      <c r="B20" s="18">
         <v>44700</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="17">
+      <c r="A21" s="28"/>
+      <c r="B21" s="18">
         <v>44701</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="17">
+      <c r="A22" s="28"/>
+      <c r="B22" s="18">
         <v>44702</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="28"/>
-      <c r="B23" s="17">
+      <c r="A23" s="29"/>
+      <c r="B23" s="18">
         <v>44703</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="18">
         <v>44704</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="17">
+      <c r="A25" s="31"/>
+      <c r="B25" s="18">
         <v>44705</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="17">
+      <c r="A26" s="31"/>
+      <c r="B26" s="18">
         <v>44706</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="17">
+      <c r="A27" s="31"/>
+      <c r="B27" s="18">
         <v>44707</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="17">
+      <c r="A28" s="31"/>
+      <c r="B28" s="18">
         <v>44708</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="17">
+      <c r="A29" s="31"/>
+      <c r="B29" s="18">
         <v>44709</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="17">
+      <c r="A30" s="32"/>
+      <c r="B30" s="18">
         <v>44710</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A31" s="32">
+    <row r="31" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="33">
         <v>23</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="18">
         <v>44711</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="17">
+      <c r="A32" s="34"/>
+      <c r="B32" s="18">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2592,8 +2602,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2614,10 +2624,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9.3"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -2739,7 +2749,9 @@
       <c r="B11" s="3">
         <v>44722</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
@@ -2747,7 +2759,9 @@
       <c r="B12" s="3">
         <v>44723</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
@@ -2755,7 +2769,9 @@
       <c r="B13" s="3">
         <v>44724</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
@@ -2765,7 +2781,9 @@
       <c r="B14" s="3">
         <v>44725</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
@@ -2773,7 +2791,9 @@
       <c r="B15" s="3">
         <v>44726</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
@@ -2781,23 +2801,29 @@
       <c r="B16" s="3">
         <v>44727</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="33" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="3">
         <v>44728</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="3">
         <v>44729</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
@@ -2805,11 +2831,13 @@
       <c r="B19" s="3">
         <v>44730</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3">
         <v>44731</v>
       </c>
@@ -2817,7 +2845,7 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>26</v>
       </c>
       <c r="B21" s="3">
@@ -2827,7 +2855,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3">
         <v>44733</v>
       </c>
@@ -2835,7 +2863,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3">
         <v>44734</v>
       </c>
@@ -2843,7 +2871,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3">
         <v>44735</v>
       </c>
@@ -2851,7 +2879,7 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3">
         <v>44736</v>
       </c>
@@ -2859,7 +2887,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3">
         <v>44737</v>
       </c>
@@ -2867,7 +2895,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3">
         <v>44738</v>
       </c>
@@ -2875,7 +2903,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="3">
@@ -2885,7 +2913,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3">
         <v>44740</v>
       </c>
@@ -2893,7 +2921,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3">
         <v>44741</v>
       </c>
@@ -2901,7 +2929,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3">
         <v>44742</v>
       </c>
@@ -2909,7 +2937,7 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -282,16 +282,31 @@
   <si>
     <t>1.实现watchlists登录页</t>
   </si>
+  <si>
+    <t>1.实现《watchlists》设置页面</t>
+  </si>
+  <si>
+    <t>1.实现《watchlists》编辑页面</t>
+  </si>
+  <si>
+    <t>1.前端项目打包、部署</t>
+  </si>
+  <si>
+    <t>1.《The Go Programming Language》p1-p5</t>
+  </si>
+  <si>
+    <t>1.《The Go Programming Language》p6-p20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -319,8 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -335,18 +365,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,8 +396,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,14 +457,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -389,67 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,187 +515,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,11 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,7 +780,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,17 +815,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,26 +852,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,142 +863,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,7 +1063,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1138,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
@@ -2623,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2841,7 +2856,9 @@
       <c r="B20" s="3">
         <v>44731</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
@@ -2851,7 +2868,9 @@
       <c r="B21" s="3">
         <v>44732</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
@@ -2859,7 +2878,9 @@
       <c r="B22" s="3">
         <v>44733</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
@@ -2867,7 +2888,9 @@
       <c r="B23" s="3">
         <v>44734</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
@@ -2875,7 +2898,9 @@
       <c r="B24" s="3">
         <v>44735</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
@@ -2883,7 +2908,9 @@
       <c r="B25" s="3">
         <v>44736</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
@@ -2891,7 +2918,9 @@
       <c r="B26" s="3">
         <v>44737</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
@@ -2899,7 +2928,9 @@
       <c r="B27" s="3">
         <v>44738</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
   <si>
     <t>序号</t>
   </si>
@@ -297,17 +297,23 @@
   <si>
     <t>1.《The Go Programming Language》p6-p20</t>
   </si>
+  <si>
+    <t>1.《The Go Programming Language》p20-p30</t>
+  </si>
+  <si>
+    <t>1.《The Go Programming Language》p30-p40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -341,40 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +356,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,30 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +408,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -449,7 +438,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -463,8 +452,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,187 +521,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,26 +767,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,8 +835,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,8 +844,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,142 +869,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1069,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
@@ -2639,14 +2645,14 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9.3"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="3" max="3" width="36.7" customWidth="1"/>
+    <col min="4" max="4" width="57.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2940,7 +2946,9 @@
       <c r="B28" s="3">
         <v>44739</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
@@ -2948,7 +2956,9 @@
       <c r="B29" s="3">
         <v>44740</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="7845" activeTab="4"/>
+    <workbookView windowWidth="19380" windowHeight="7845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="To Do List" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="4" sheetId="2" r:id="rId3"/>
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="6" sheetId="6" r:id="rId5"/>
+    <sheet name="7" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -302,6 +303,9 @@
   </si>
   <si>
     <t>1.《The Go Programming Language》p30-p40</t>
+  </si>
+  <si>
+    <t>1.学习Docker:p7</t>
   </si>
 </sst>
 </file>
@@ -340,82 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -431,6 +361,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -438,7 +427,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -460,17 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,25 +501,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +585,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,169 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +775,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,21 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -828,24 +832,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,147 +850,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,21 +1018,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,12 +1067,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1072,19 +1127,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,15 +1167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,16 +1181,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1153,10 +1208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1513,7 +1568,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="66" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1545,272 +1600,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="41"/>
-    <col min="3" max="3" width="68.6" style="41" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="41"/>
+    <col min="1" max="2" width="8.8" style="58"/>
+    <col min="3" max="3" width="68.6" style="58" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="43">
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="60">
         <v>12</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="61">
         <v>44637</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44">
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61">
         <v>44638</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61">
         <v>44639</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" ht="49.5" spans="1:5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" ht="45" spans="1:5">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61">
         <v>44640</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="46">
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="63">
         <v>13</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="61">
         <v>44641</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="44">
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="63"/>
+      <c r="B8" s="61">
         <v>44642</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="44">
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="63"/>
+      <c r="B9" s="61">
         <v>44643</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="44">
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="63"/>
+      <c r="B10" s="61">
         <v>44644</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="44">
+      <c r="A11" s="63"/>
+      <c r="B11" s="61">
         <v>44645</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="44">
+      <c r="C11" s="62"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="63"/>
+      <c r="B12" s="61">
         <v>44646</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" ht="66" spans="1:5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="44">
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" ht="60" spans="1:5">
+      <c r="A13" s="63"/>
+      <c r="B13" s="61">
         <v>44647</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="47">
+    <row r="14" spans="1:5">
+      <c r="A14" s="64">
         <v>14</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="61">
         <v>44648</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" ht="49.5" spans="1:5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44">
+      <c r="D14" s="12"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" ht="45" spans="1:5">
+      <c r="A15" s="64"/>
+      <c r="B15" s="61">
         <v>44649</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" ht="33" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44">
+      <c r="E15" s="59"/>
+    </row>
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="64"/>
+      <c r="B16" s="61">
         <v>44650</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="44">
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="64"/>
+      <c r="B17" s="61">
         <v>44651</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="48"/>
+      <c r="B18" s="65"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="48"/>
+      <c r="B19" s="65"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="48"/>
+      <c r="B20" s="65"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="48"/>
+      <c r="B21" s="65"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="48"/>
+      <c r="B22" s="65"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="48"/>
+      <c r="B23" s="65"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="48"/>
+      <c r="B24" s="65"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="48"/>
+      <c r="B25" s="65"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="48"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="48"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="48"/>
+      <c r="B28" s="65"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="48"/>
+      <c r="B29" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1830,7 +1885,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
@@ -1860,10 +1915,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="35">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1874,148 +1929,148 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18">
+    <row r="3" ht="45" spans="1:5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35">
         <v>44653</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18">
+    <row r="4" ht="30" spans="1:5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35">
         <v>44654</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="33" spans="1:5">
-      <c r="A5" s="37" t="s">
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="35">
         <v>44655</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="18">
+      <c r="A6" s="54"/>
+      <c r="B6" s="35">
         <v>44656</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="18">
+      <c r="A7" s="54"/>
+      <c r="B7" s="35">
         <v>44657</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="37" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="18">
+      <c r="A8" s="54"/>
+      <c r="B8" s="35">
         <v>44658</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="18">
+      <c r="A9" s="54"/>
+      <c r="B9" s="35">
         <v>44659</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="18">
+      <c r="A10" s="54"/>
+      <c r="B10" s="35">
         <v>44660</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="37"/>
-      <c r="B11" s="18">
+      <c r="A11" s="54"/>
+      <c r="B11" s="35">
         <v>44661</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="38">
+      <c r="A12" s="55">
         <v>16</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="35">
         <v>44662</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="18">
+      <c r="A13" s="55"/>
+      <c r="B13" s="35">
         <v>44663</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="18">
+      <c r="A14" s="55"/>
+      <c r="B14" s="35">
         <v>44664</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2023,164 +2078,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="18">
+      <c r="A15" s="55"/>
+      <c r="B15" s="35">
         <v>44665</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="39" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="18">
+      <c r="A16" s="55"/>
+      <c r="B16" s="35">
         <v>44666</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="18">
+      <c r="A17" s="55"/>
+      <c r="B17" s="35">
         <v>44667</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="18">
+      <c r="A18" s="55"/>
+      <c r="B18" s="35">
         <v>44668</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="39" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="39">
+      <c r="A19" s="56">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="35">
         <v>44669</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="37" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="39"/>
-      <c r="B20" s="18">
+      <c r="A20" s="56"/>
+      <c r="B20" s="35">
         <v>44670</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="39"/>
-      <c r="B21" s="18">
+      <c r="A21" s="56"/>
+      <c r="B21" s="35">
         <v>44671</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="39"/>
-      <c r="B22" s="18">
+      <c r="A22" s="56"/>
+      <c r="B22" s="35">
         <v>44672</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="18">
+      <c r="A23" s="56"/>
+      <c r="B23" s="35">
         <v>44673</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="39"/>
-      <c r="B24" s="18">
+      <c r="A24" s="56"/>
+      <c r="B24" s="35">
         <v>44674</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="37" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="39"/>
-      <c r="B25" s="18">
+      <c r="A25" s="56"/>
+      <c r="B25" s="35">
         <v>44675</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="40">
+      <c r="A26" s="57">
         <v>18</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="35">
         <v>44676</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="18">
+      <c r="A27" s="57"/>
+      <c r="B27" s="35">
         <v>44677</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="37" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2188,56 +2243,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="40"/>
-      <c r="B28" s="18">
+      <c r="A28" s="57"/>
+      <c r="B28" s="35">
         <v>44678</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="40"/>
-      <c r="B29" s="18">
+      <c r="A29" s="57"/>
+      <c r="B29" s="35">
         <v>44679</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="40"/>
-      <c r="B30" s="18">
+      <c r="A30" s="57"/>
+      <c r="B30" s="35">
         <v>44680</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40"/>
-      <c r="B31" s="18">
+      <c r="A31" s="57"/>
+      <c r="B31" s="35">
         <v>44681</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2257,7 +2312,7 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2286,10 +2341,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="35">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2301,319 +2356,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="35">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18">
+      <c r="A6" s="38"/>
+      <c r="B6" s="35">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18">
+      <c r="A9" s="40"/>
+      <c r="B9" s="35">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="24">
+      <c r="A10" s="41">
         <v>20</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="35">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18">
+      <c r="A11" s="42"/>
+      <c r="B11" s="35">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18">
+      <c r="A12" s="42"/>
+      <c r="B12" s="35">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="18">
+      <c r="A13" s="42"/>
+      <c r="B13" s="35">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18">
+      <c r="A14" s="42"/>
+      <c r="B14" s="35">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18">
+      <c r="A15" s="42"/>
+      <c r="B15" s="35">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18">
+      <c r="A16" s="43"/>
+      <c r="B16" s="35">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="27">
+      <c r="A17" s="44">
         <v>21</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="35">
         <v>44697</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="28"/>
-      <c r="B18" s="18">
+      <c r="A18" s="45"/>
+      <c r="B18" s="35">
         <v>44698</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="18">
+      <c r="A19" s="45"/>
+      <c r="B19" s="35">
         <v>44699</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="18">
+      <c r="A20" s="45"/>
+      <c r="B20" s="35">
         <v>44700</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="28"/>
-      <c r="B21" s="18">
+      <c r="A21" s="45"/>
+      <c r="B21" s="35">
         <v>44701</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="18">
+      <c r="A22" s="45"/>
+      <c r="B22" s="35">
         <v>44702</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="18">
+      <c r="A23" s="46"/>
+      <c r="B23" s="35">
         <v>44703</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="30">
+      <c r="A24" s="47">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="35">
         <v>44704</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="31"/>
-      <c r="B25" s="18">
+      <c r="A25" s="48"/>
+      <c r="B25" s="35">
         <v>44705</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="18">
+      <c r="A26" s="48"/>
+      <c r="B26" s="35">
         <v>44706</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="31"/>
-      <c r="B27" s="18">
+      <c r="A27" s="48"/>
+      <c r="B27" s="35">
         <v>44707</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="18">
+      <c r="A28" s="48"/>
+      <c r="B28" s="35">
         <v>44708</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="18">
+      <c r="A29" s="48"/>
+      <c r="B29" s="35">
         <v>44709</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="18">
+      <c r="A30" s="49"/>
+      <c r="B30" s="35">
         <v>44710</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="33">
+      <c r="A31" s="50">
         <v>23</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="35">
         <v>44711</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="34"/>
-      <c r="B32" s="18">
+      <c r="A32" s="51"/>
+      <c r="B32" s="35">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2623,8 +2678,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2644,8 +2699,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2670,10 +2725,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="21">
         <v>23</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="22">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2682,8 +2737,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2692,8 +2747,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2702,8 +2757,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2712,8 +2767,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2722,10 +2777,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="23">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="22">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2734,8 +2789,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2744,8 +2799,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2754,8 +2809,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2766,8 +2821,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2776,8 +2831,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2786,8 +2841,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2796,10 +2851,10 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="A14" s="26">
         <v>25</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="22">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2808,8 +2863,8 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="22">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2818,8 +2873,8 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="22">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2827,29 +2882,29 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" ht="33" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3">
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="27"/>
+      <c r="B17" s="22">
         <v>44728</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3">
+    <row r="18" spans="1:4">
+      <c r="A18" s="27"/>
+      <c r="B18" s="22">
         <v>44729</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2858,8 +2913,8 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="22">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2868,10 +2923,10 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12">
+      <c r="A21" s="29">
         <v>26</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="22">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2880,8 +2935,8 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="22">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2890,8 +2945,8 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="22">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2900,8 +2955,8 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="22">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2910,8 +2965,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="22">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2920,8 +2975,8 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="22">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2930,8 +2985,8 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="22">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2940,10 +2995,10 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="22">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2952,8 +3007,8 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="22">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2962,23 +3017,23 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="22">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="22">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="16"/>
+      <c r="B32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2991,4 +3046,309 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="27.6" customWidth="1"/>
+    <col min="4" max="4" width="61.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3">
+        <v>44744</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3">
+        <v>44745</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3">
+        <v>44747</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3">
+        <v>44749</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3">
+        <v>44750</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
+        <v>44751</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3">
+        <v>44752</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44753</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3">
+        <v>44754</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3">
+        <v>44755</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3">
+        <v>44756</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3">
+        <v>44757</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3">
+        <v>44758</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3">
+        <v>44759</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44760</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3">
+        <v>44761</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3">
+        <v>44762</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3">
+        <v>44763</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3">
+        <v>44764</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3">
+        <v>44765</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="3">
+        <v>44766</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="17">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44767</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="3">
+        <v>44768</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3">
+        <v>44769</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3">
+        <v>44770</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3">
+        <v>44771</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="3">
+        <v>44772</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="19"/>
+      <c r="B32" s="3">
+        <v>44773</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -305,7 +305,15 @@
     <t>1.《The Go Programming Language》p30-p40</t>
   </si>
   <si>
-    <t>1.学习Docker:p7</t>
+    <t>1.《Docker实战教程》p7</t>
+  </si>
+  <si>
+    <t>1.参加北京永新在线网络公司的面试</t>
+  </si>
+  <si>
+    <t>1.投简历
+2.参加金蝶帐无忧公司的面试
+3.《Docker实战教程》p8</t>
   </si>
 </sst>
 </file>
@@ -315,8 +323,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -345,16 +353,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,18 +367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,22 +383,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +408,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -434,19 +459,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,22 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,25 +533,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,157 +701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +779,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -795,17 +853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,191 +876,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,27 +1100,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1568,7 +1552,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1600,272 +1584,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="58"/>
-    <col min="3" max="3" width="68.6" style="58" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="58"/>
+    <col min="1" max="2" width="8.8" style="50"/>
+    <col min="3" max="3" width="68.6" style="50" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="60">
+      <c r="A2" s="52">
         <v>12</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="53">
         <v>44637</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>44638</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53">
         <v>44639</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" ht="45" spans="1:5">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53">
         <v>44640</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="63">
+      <c r="A7" s="55">
         <v>13</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="53">
         <v>44641</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="63"/>
-      <c r="B8" s="61">
+      <c r="A8" s="55"/>
+      <c r="B8" s="53">
         <v>44642</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="63"/>
-      <c r="B9" s="61">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53">
         <v>44643</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53">
         <v>44644</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="61">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53">
         <v>44645</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="61">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53">
         <v>44646</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="63"/>
-      <c r="B13" s="61">
+      <c r="A13" s="55"/>
+      <c r="B13" s="53">
         <v>44647</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64">
+      <c r="A14" s="56">
         <v>14</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="53">
         <v>44648</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61">
+      <c r="A15" s="56"/>
+      <c r="B15" s="53">
         <v>44649</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53">
         <v>44650</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="59"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61">
+      <c r="A17" s="56"/>
+      <c r="B17" s="53">
         <v>44651</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="65"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="65"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="65"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="65"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="65"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="65"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="65"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="65"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="65"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="65"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="65"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="65"/>
+      <c r="B29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1915,10 +1899,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="27">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1930,14 +1914,14 @@
       </c>
     </row>
     <row r="3" ht="45" spans="1:5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27">
         <v>44653</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1945,132 +1929,132 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27">
         <v>44654</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="27">
         <v>44655</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="54"/>
-      <c r="B6" s="35">
+      <c r="A6" s="46"/>
+      <c r="B6" s="27">
         <v>44656</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="54"/>
-      <c r="B7" s="35">
+      <c r="A7" s="46"/>
+      <c r="B7" s="27">
         <v>44657</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="54"/>
-      <c r="B8" s="35">
+      <c r="A8" s="46"/>
+      <c r="B8" s="27">
         <v>44658</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="54"/>
-      <c r="B9" s="35">
+      <c r="A9" s="46"/>
+      <c r="B9" s="27">
         <v>44659</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="54"/>
-      <c r="B10" s="35">
+      <c r="A10" s="46"/>
+      <c r="B10" s="27">
         <v>44660</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="54"/>
-      <c r="B11" s="35">
+      <c r="A11" s="46"/>
+      <c r="B11" s="27">
         <v>44661</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="55">
+      <c r="A12" s="47">
         <v>16</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="27">
         <v>44662</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="27">
         <v>44663</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="55"/>
-      <c r="B14" s="35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="27">
         <v>44664</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2078,164 +2062,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="55"/>
-      <c r="B15" s="35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="27">
         <v>44665</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="55"/>
-      <c r="B16" s="35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="27">
         <v>44666</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="55"/>
-      <c r="B17" s="35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="27">
         <v>44667</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="55"/>
-      <c r="B18" s="35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="27">
         <v>44668</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="56">
+      <c r="A19" s="48">
         <v>17</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="27">
         <v>44669</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="35">
+      <c r="A20" s="48"/>
+      <c r="B20" s="27">
         <v>44670</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="35">
+      <c r="A21" s="48"/>
+      <c r="B21" s="27">
         <v>44671</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="56"/>
-      <c r="B22" s="35">
+      <c r="A22" s="48"/>
+      <c r="B22" s="27">
         <v>44672</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="56"/>
-      <c r="B23" s="35">
+      <c r="A23" s="48"/>
+      <c r="B23" s="27">
         <v>44673</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35">
+      <c r="A24" s="48"/>
+      <c r="B24" s="27">
         <v>44674</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="35">
+      <c r="A25" s="48"/>
+      <c r="B25" s="27">
         <v>44675</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="57">
+      <c r="A26" s="49">
         <v>18</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="27">
         <v>44676</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="27">
         <v>44677</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2243,56 +2227,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="57"/>
-      <c r="B28" s="35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="27">
         <v>44678</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="57"/>
-      <c r="B29" s="35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="27">
         <v>44679</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="27">
         <v>44680</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="57"/>
-      <c r="B31" s="35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27">
         <v>44681</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2341,10 +2325,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="27">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2356,319 +2340,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="27">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="27">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="27">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="27">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="41">
+      <c r="A10" s="33">
         <v>20</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="27">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35">
+      <c r="A11" s="34"/>
+      <c r="B11" s="27">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="42"/>
-      <c r="B12" s="35">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="42"/>
-      <c r="B14" s="35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="27">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="42"/>
-      <c r="B15" s="35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="27">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="44">
+      <c r="A17" s="36">
         <v>21</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="27">
         <v>44697</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="27">
         <v>44698</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="27">
         <v>44699</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27">
         <v>44700</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="27">
         <v>44701</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="35">
+      <c r="A22" s="37"/>
+      <c r="B22" s="27">
         <v>44702</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="35">
+      <c r="A23" s="38"/>
+      <c r="B23" s="27">
         <v>44703</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="47">
+      <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="27">
         <v>44704</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="35">
+      <c r="A25" s="40"/>
+      <c r="B25" s="27">
         <v>44705</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="48"/>
-      <c r="B26" s="35">
+      <c r="A26" s="40"/>
+      <c r="B26" s="27">
         <v>44706</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48"/>
-      <c r="B27" s="35">
+      <c r="A27" s="40"/>
+      <c r="B27" s="27">
         <v>44707</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="48"/>
-      <c r="B28" s="35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27">
         <v>44708</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="48"/>
-      <c r="B29" s="35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27">
         <v>44709</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="35">
+      <c r="A30" s="41"/>
+      <c r="B30" s="27">
         <v>44710</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="50">
+      <c r="A31" s="42">
         <v>23</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="27">
         <v>44711</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="51"/>
-      <c r="B32" s="35">
+      <c r="A32" s="43"/>
+      <c r="B32" s="27">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2678,8 +2662,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2725,10 +2709,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>23</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2737,8 +2721,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2747,8 +2731,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2757,8 +2741,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2767,8 +2751,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2777,10 +2761,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>24</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2789,8 +2773,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2799,8 +2783,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2809,8 +2793,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2821,8 +2805,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2831,8 +2815,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2841,8 +2825,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2851,10 +2835,10 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26">
+      <c r="A14" s="7">
         <v>25</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2863,8 +2847,8 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="22">
+      <c r="A15" s="8"/>
+      <c r="B15" s="21">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2873,8 +2857,8 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22">
+      <c r="A16" s="8"/>
+      <c r="B16" s="21">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2883,8 +2867,8 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="22">
+      <c r="A17" s="8"/>
+      <c r="B17" s="21">
         <v>44728</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2893,8 +2877,8 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="22">
+      <c r="A18" s="8"/>
+      <c r="B18" s="21">
         <v>44729</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2903,8 +2887,8 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22">
+      <c r="A19" s="8"/>
+      <c r="B19" s="21">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2913,8 +2897,8 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="22">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2923,10 +2907,10 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29">
+      <c r="A21" s="10">
         <v>26</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2935,8 +2919,8 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="21">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2945,8 +2929,8 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22">
+      <c r="A23" s="11"/>
+      <c r="B23" s="21">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2955,8 +2939,8 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="22">
+      <c r="A24" s="11"/>
+      <c r="B24" s="21">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2965,8 +2949,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="22">
+      <c r="A25" s="11"/>
+      <c r="B25" s="21">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2975,8 +2959,8 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="22">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2985,8 +2969,8 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="22">
+      <c r="A27" s="11"/>
+      <c r="B27" s="21">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2995,10 +2979,10 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3007,8 +2991,8 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="31"/>
-      <c r="B29" s="22">
+      <c r="A29" s="15"/>
+      <c r="B29" s="21">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3017,23 +3001,23 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="22">
+      <c r="A30" s="15"/>
+      <c r="B30" s="21">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="22">
+      <c r="A31" s="16"/>
+      <c r="B31" s="21">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="33"/>
+      <c r="B32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3054,7 +3038,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3197,15 +3181,19 @@
       <c r="B15" s="3">
         <v>44756</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="45" spans="1:4">
       <c r="A16" s="11"/>
       <c r="B16" s="3">
         <v>44757</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
@@ -3337,8 +3325,8 @@
       <c r="B32" s="3">
         <v>44773</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -315,6 +315,27 @@
 2.参加金蝶帐无忧公司的面试
 3.《Docker实战教程》p8</t>
   </si>
+  <si>
+    <t>1.《Docker实战教程》p9</t>
+  </si>
+  <si>
+    <t>1./etc/docker/daemon.json
+2.{
+"registry-mirrors":["https://sg7ujcbf.mirror.aliyuncs.com"]
+}
+3.tee命令：</t>
+  </si>
+  <si>
+    <t>1.撰写每日总结。
+2.制定《Linux Command Line and Shell Scripting bible 4》阅读计划。
+3.《gopl》p45-p49。</t>
+  </si>
+  <si>
+    <t>1.撰写每日总结。</t>
+  </si>
+  <si>
+    <t>1.体检、准备入职资料。</t>
+  </si>
 </sst>
 </file>
 
@@ -324,8 +345,8 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -352,11 +373,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +403,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -383,17 +442,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,37 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,36 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,37 +554,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,31 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,103 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,21 +800,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -820,20 +826,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,6 +859,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,142 +902,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3037,14 +3058,14 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="27.6" customWidth="1"/>
+    <col min="3" max="3" width="42.9" customWidth="1"/>
     <col min="4" max="4" width="61.1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3196,20 +3217,26 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="75" spans="1:4">
       <c r="A17" s="11"/>
       <c r="B17" s="3">
         <v>44758</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="3">
         <v>44759</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
@@ -3219,7 +3246,9 @@
       <c r="B19" s="3">
         <v>44760</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
@@ -3227,7 +3256,9 @@
       <c r="B20" s="3">
         <v>44761</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
@@ -3235,7 +3266,9 @@
       <c r="B21" s="3">
         <v>44762</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
   <si>
     <t>序号</t>
   </si>
@@ -336,6 +336,10 @@
   <si>
     <t>1.体检、准备入职资料。</t>
   </si>
+  <si>
+    <t>1.撰写每日总结。
+2.入职</t>
+  </si>
 </sst>
 </file>
 
@@ -343,10 +347,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -373,6 +377,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,10 +392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,8 +408,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,32 +433,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,39 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,6 +490,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -554,133 +558,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,49 +732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,6 +804,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -826,24 +854,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,17 +874,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,142 +906,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,6 +1099,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,7 +1580,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1605,272 +1612,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="50"/>
-    <col min="3" max="3" width="68.6" style="50" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="50" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="50"/>
+    <col min="1" max="2" width="8.8" style="51"/>
+    <col min="3" max="3" width="68.6" style="51" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="52">
+      <c r="A2" s="53">
         <v>12</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="54">
         <v>44637</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54">
         <v>44638</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54">
         <v>44639</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" ht="45" spans="1:5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54">
         <v>44640</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="55">
+      <c r="A7" s="56">
         <v>13</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="54">
         <v>44641</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="55"/>
-      <c r="B8" s="53">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54">
         <v>44642</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54">
         <v>44643</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="55"/>
-      <c r="B10" s="53">
+      <c r="A10" s="56"/>
+      <c r="B10" s="54">
         <v>44644</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54">
         <v>44645</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54">
         <v>44646</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="55"/>
-      <c r="B13" s="53">
+      <c r="A13" s="56"/>
+      <c r="B13" s="54">
         <v>44647</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="56">
+      <c r="A14" s="57">
         <v>14</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="54">
         <v>44648</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="53">
+      <c r="A15" s="57"/>
+      <c r="B15" s="54">
         <v>44649</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53">
+      <c r="A16" s="57"/>
+      <c r="B16" s="54">
         <v>44650</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="53">
+      <c r="A17" s="57"/>
+      <c r="B17" s="54">
         <v>44651</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="57"/>
+      <c r="B19" s="58"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="57"/>
+      <c r="B24" s="58"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="57"/>
+      <c r="B25" s="58"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="57"/>
+      <c r="B26" s="58"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="57"/>
+      <c r="B27" s="58"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="57"/>
+      <c r="B28" s="58"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="57"/>
+      <c r="B29" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1920,10 +1927,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1935,14 +1942,14 @@
       </c>
     </row>
     <row r="3" ht="45" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
         <v>44653</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1950,132 +1957,132 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
         <v>44654</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>44655</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="27">
+      <c r="A6" s="47"/>
+      <c r="B6" s="28">
         <v>44656</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="27">
+      <c r="A7" s="47"/>
+      <c r="B7" s="28">
         <v>44657</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="27">
+      <c r="A8" s="47"/>
+      <c r="B8" s="28">
         <v>44658</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="27">
+      <c r="A9" s="47"/>
+      <c r="B9" s="28">
         <v>44659</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="27">
+      <c r="A10" s="47"/>
+      <c r="B10" s="28">
         <v>44660</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="27">
+      <c r="A11" s="47"/>
+      <c r="B11" s="28">
         <v>44661</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="47">
+      <c r="A12" s="48">
         <v>16</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <v>44662</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="27">
+      <c r="A13" s="48"/>
+      <c r="B13" s="28">
         <v>44663</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="27">
+      <c r="A14" s="48"/>
+      <c r="B14" s="28">
         <v>44664</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2083,164 +2090,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="27">
+      <c r="A15" s="48"/>
+      <c r="B15" s="28">
         <v>44665</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="27">
+      <c r="A16" s="48"/>
+      <c r="B16" s="28">
         <v>44666</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="27">
+      <c r="A17" s="48"/>
+      <c r="B17" s="28">
         <v>44667</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="27">
+      <c r="A18" s="48"/>
+      <c r="B18" s="28">
         <v>44668</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48">
+      <c r="A19" s="49">
         <v>17</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="28">
         <v>44669</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
-      <c r="B20" s="27">
+      <c r="A20" s="49"/>
+      <c r="B20" s="28">
         <v>44670</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="27">
+      <c r="A21" s="49"/>
+      <c r="B21" s="28">
         <v>44671</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48"/>
-      <c r="B22" s="27">
+      <c r="A22" s="49"/>
+      <c r="B22" s="28">
         <v>44672</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27">
+      <c r="A23" s="49"/>
+      <c r="B23" s="28">
         <v>44673</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27">
+      <c r="A24" s="49"/>
+      <c r="B24" s="28">
         <v>44674</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27">
+      <c r="A25" s="49"/>
+      <c r="B25" s="28">
         <v>44675</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="49">
+      <c r="A26" s="50">
         <v>18</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="28">
         <v>44676</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="49"/>
-      <c r="B27" s="27">
+      <c r="A27" s="50"/>
+      <c r="B27" s="28">
         <v>44677</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2248,56 +2255,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="49"/>
-      <c r="B28" s="27">
+      <c r="A28" s="50"/>
+      <c r="B28" s="28">
         <v>44678</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="49"/>
-      <c r="B29" s="27">
+      <c r="A29" s="50"/>
+      <c r="B29" s="28">
         <v>44679</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="27">
+      <c r="A30" s="50"/>
+      <c r="B30" s="28">
         <v>44680</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="27">
+      <c r="A31" s="50"/>
+      <c r="B31" s="28">
         <v>44681</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2346,10 +2353,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2361,319 +2368,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27">
+      <c r="A7" s="31"/>
+      <c r="B7" s="28">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27">
+      <c r="A8" s="31"/>
+      <c r="B8" s="28">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="27">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>20</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="27">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="27">
+      <c r="A12" s="35"/>
+      <c r="B12" s="28">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="27">
+      <c r="A13" s="35"/>
+      <c r="B13" s="28">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="27">
+      <c r="A14" s="35"/>
+      <c r="B14" s="28">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27">
+      <c r="A15" s="35"/>
+      <c r="B15" s="28">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="27">
+      <c r="A16" s="36"/>
+      <c r="B16" s="28">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>21</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="28">
         <v>44697</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27">
+      <c r="A18" s="38"/>
+      <c r="B18" s="28">
         <v>44698</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27">
+      <c r="A19" s="38"/>
+      <c r="B19" s="28">
         <v>44699</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="27">
+      <c r="A20" s="38"/>
+      <c r="B20" s="28">
         <v>44700</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="27">
+      <c r="A21" s="38"/>
+      <c r="B21" s="28">
         <v>44701</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="27">
+      <c r="A22" s="38"/>
+      <c r="B22" s="28">
         <v>44702</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="38"/>
-      <c r="B23" s="27">
+      <c r="A23" s="39"/>
+      <c r="B23" s="28">
         <v>44703</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="39">
+      <c r="A24" s="40">
         <v>22</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="28">
         <v>44704</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="40"/>
-      <c r="B25" s="27">
+      <c r="A25" s="41"/>
+      <c r="B25" s="28">
         <v>44705</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="27">
+      <c r="A26" s="41"/>
+      <c r="B26" s="28">
         <v>44706</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="27">
+      <c r="A27" s="41"/>
+      <c r="B27" s="28">
         <v>44707</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="40"/>
-      <c r="B28" s="27">
+      <c r="A28" s="41"/>
+      <c r="B28" s="28">
         <v>44708</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="40"/>
-      <c r="B29" s="27">
+      <c r="A29" s="41"/>
+      <c r="B29" s="28">
         <v>44709</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="27">
+      <c r="A30" s="42"/>
+      <c r="B30" s="28">
         <v>44710</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="42">
+      <c r="A31" s="43">
         <v>23</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="28">
         <v>44711</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="43"/>
-      <c r="B32" s="27">
+      <c r="A32" s="44"/>
+      <c r="B32" s="28">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2683,8 +2690,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2730,10 +2737,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>23</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="22">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2742,8 +2749,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2752,8 +2759,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2762,8 +2769,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2772,8 +2779,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2782,10 +2789,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>24</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2794,8 +2801,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2804,8 +2811,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2814,8 +2821,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2826,8 +2833,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2836,8 +2843,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2846,8 +2853,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2859,7 +2866,7 @@
       <c r="A14" s="7">
         <v>25</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2869,7 +2876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2879,7 +2886,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2889,7 +2896,7 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="8"/>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>44728</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2899,7 +2906,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>44729</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2909,7 +2916,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2919,7 +2926,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2931,7 +2938,7 @@
       <c r="A21" s="10">
         <v>26</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2941,7 +2948,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2951,7 +2958,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11"/>
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2961,7 +2968,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11"/>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2971,7 +2978,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11"/>
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2981,7 +2988,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11"/>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2991,7 +2998,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3003,7 +3010,7 @@
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3013,7 +3020,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15"/>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3023,22 +3030,22 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="15"/>
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="21">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3059,7 +3066,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3271,12 +3278,14 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="30" spans="1:4">
       <c r="A22" s="15"/>
       <c r="B22" s="3">
         <v>44763</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
@@ -3296,7 +3305,7 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3">
         <v>44766</v>
       </c>
@@ -3304,7 +3313,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>31</v>
       </c>
       <c r="B26" s="3">
@@ -3314,7 +3323,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="3">
         <v>44768</v>
       </c>
@@ -3322,7 +3331,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3">
         <v>44769</v>
       </c>
@@ -3330,7 +3339,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3">
         <v>44770</v>
       </c>
@@ -3338,7 +3347,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="3">
         <v>44771</v>
       </c>
@@ -3346,7 +3355,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="3">
         <v>44772</v>
       </c>
@@ -3354,7 +3363,7 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>44773</v>
       </c>

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>序号</t>
   </si>
@@ -340,17 +340,23 @@
     <t>1.撰写每日总结。
 2.入职</t>
   </si>
+  <si>
+    <t>1.了解EAP/RMS/APC/FDC系统</t>
+  </si>
+  <si>
+    <t>1.撰写总结</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -377,6 +383,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -385,8 +412,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,78 +504,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,35 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -558,13 +564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,19 +600,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,103 +720,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,15 +829,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -848,6 +845,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,23 +893,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,142 +912,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,9 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,7 +1583,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1612,272 +1615,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="51"/>
-    <col min="3" max="3" width="68.6" style="51" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="51" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="51"/>
+    <col min="1" max="2" width="8.8" style="50"/>
+    <col min="3" max="3" width="68.6" style="50" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53">
+      <c r="A2" s="52">
         <v>12</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="53">
         <v>44637</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>44638</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53">
         <v>44639</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" ht="45" spans="1:5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53">
         <v>44640</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>13</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>44641</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54">
+      <c r="A8" s="55"/>
+      <c r="B8" s="53">
         <v>44642</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53">
         <v>44643</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="56"/>
-      <c r="B10" s="54">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53">
         <v>44644</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53">
         <v>44645</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53">
         <v>44646</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="56"/>
-      <c r="B13" s="54">
+      <c r="A13" s="55"/>
+      <c r="B13" s="53">
         <v>44647</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>14</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>44648</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="52"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54">
+      <c r="A15" s="56"/>
+      <c r="B15" s="53">
         <v>44649</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53">
         <v>44650</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="57"/>
-      <c r="B17" s="54">
+      <c r="A17" s="56"/>
+      <c r="B17" s="53">
         <v>44651</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="58"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="58"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="58"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="58"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="58"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="58"/>
+      <c r="B29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1927,10 +1930,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1942,14 +1945,14 @@
       </c>
     </row>
     <row r="3" ht="45" spans="1:5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27">
         <v>44653</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1957,132 +1960,132 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27">
         <v>44654</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>44655</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="28">
+      <c r="A6" s="46"/>
+      <c r="B6" s="27">
         <v>44656</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="28">
+      <c r="A7" s="46"/>
+      <c r="B7" s="27">
         <v>44657</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="28">
+      <c r="A8" s="46"/>
+      <c r="B8" s="27">
         <v>44658</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="28">
+      <c r="A9" s="46"/>
+      <c r="B9" s="27">
         <v>44659</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="28">
+      <c r="A10" s="46"/>
+      <c r="B10" s="27">
         <v>44660</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="28">
+      <c r="A11" s="46"/>
+      <c r="B11" s="27">
         <v>44661</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>16</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>44662</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="28">
+      <c r="A13" s="47"/>
+      <c r="B13" s="27">
         <v>44663</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="28">
+      <c r="A14" s="47"/>
+      <c r="B14" s="27">
         <v>44664</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2090,164 +2093,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="28">
+      <c r="A15" s="47"/>
+      <c r="B15" s="27">
         <v>44665</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="28">
+      <c r="A16" s="47"/>
+      <c r="B16" s="27">
         <v>44666</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="48"/>
-      <c r="B17" s="28">
+      <c r="A17" s="47"/>
+      <c r="B17" s="27">
         <v>44667</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="28">
+      <c r="A18" s="47"/>
+      <c r="B18" s="27">
         <v>44668</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>44669</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49"/>
-      <c r="B20" s="28">
+      <c r="A20" s="48"/>
+      <c r="B20" s="27">
         <v>44670</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="49"/>
-      <c r="B21" s="28">
+      <c r="A21" s="48"/>
+      <c r="B21" s="27">
         <v>44671</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="49"/>
-      <c r="B22" s="28">
+      <c r="A22" s="48"/>
+      <c r="B22" s="27">
         <v>44672</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="49"/>
-      <c r="B23" s="28">
+      <c r="A23" s="48"/>
+      <c r="B23" s="27">
         <v>44673</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="49"/>
-      <c r="B24" s="28">
+      <c r="A24" s="48"/>
+      <c r="B24" s="27">
         <v>44674</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="49"/>
-      <c r="B25" s="28">
+      <c r="A25" s="48"/>
+      <c r="B25" s="27">
         <v>44675</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>18</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>44676</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="50"/>
-      <c r="B27" s="28">
+      <c r="A27" s="49"/>
+      <c r="B27" s="27">
         <v>44677</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2255,56 +2258,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="28">
+      <c r="A28" s="49"/>
+      <c r="B28" s="27">
         <v>44678</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="50"/>
-      <c r="B29" s="28">
+      <c r="A29" s="49"/>
+      <c r="B29" s="27">
         <v>44679</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50"/>
-      <c r="B30" s="28">
+      <c r="A30" s="49"/>
+      <c r="B30" s="27">
         <v>44680</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="50"/>
-      <c r="B31" s="28">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27">
         <v>44681</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2353,10 +2356,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2368,319 +2371,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28">
+      <c r="A5" s="30"/>
+      <c r="B5" s="27">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28">
+      <c r="A6" s="30"/>
+      <c r="B6" s="27">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="28">
+      <c r="A7" s="30"/>
+      <c r="B7" s="27">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>20</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28">
+      <c r="A11" s="34"/>
+      <c r="B11" s="27">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="28">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28">
+      <c r="A14" s="34"/>
+      <c r="B14" s="27">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="28">
+      <c r="A16" s="35"/>
+      <c r="B16" s="27">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>21</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>44697</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="27">
         <v>44698</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="28">
+      <c r="A19" s="37"/>
+      <c r="B19" s="27">
         <v>44699</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="28">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27">
         <v>44700</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="28">
+      <c r="A21" s="37"/>
+      <c r="B21" s="27">
         <v>44701</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="28">
+      <c r="A22" s="37"/>
+      <c r="B22" s="27">
         <v>44702</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="28">
+      <c r="A23" s="38"/>
+      <c r="B23" s="27">
         <v>44703</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>44704</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="28">
+      <c r="A25" s="40"/>
+      <c r="B25" s="27">
         <v>44705</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="28">
+      <c r="A26" s="40"/>
+      <c r="B26" s="27">
         <v>44706</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="28">
+      <c r="A27" s="40"/>
+      <c r="B27" s="27">
         <v>44707</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="28">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27">
         <v>44708</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="28">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27">
         <v>44709</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="28">
+      <c r="A30" s="41"/>
+      <c r="B30" s="27">
         <v>44710</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>23</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>44711</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="28">
+      <c r="A32" s="43"/>
+      <c r="B32" s="27">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2690,8 +2693,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2737,10 +2740,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>23</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2749,8 +2752,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2759,8 +2762,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2769,8 +2772,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2779,8 +2782,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2789,10 +2792,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>24</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2801,8 +2804,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2811,8 +2814,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2821,8 +2824,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2833,8 +2836,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2843,8 +2846,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2853,8 +2856,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2866,7 +2869,7 @@
       <c r="A14" s="7">
         <v>25</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2876,7 +2879,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2886,7 +2889,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2896,7 +2899,7 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="8"/>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>44728</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2906,7 +2909,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>44729</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2916,7 +2919,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2926,7 +2929,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2938,7 +2941,7 @@
       <c r="A21" s="10">
         <v>26</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2948,7 +2951,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2958,7 +2961,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11"/>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2968,7 +2971,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11"/>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2978,7 +2981,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11"/>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2988,7 +2991,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11"/>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2998,7 +3001,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3010,7 +3013,7 @@
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3020,7 +3023,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15"/>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3030,22 +3033,22 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="15"/>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="22">
+      <c r="A31" s="16"/>
+      <c r="B31" s="21">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3065,8 +3068,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3283,7 +3286,7 @@
       <c r="B22" s="3">
         <v>44763</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="4"/>
@@ -3293,7 +3296,9 @@
       <c r="B23" s="3">
         <v>44764</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
@@ -3301,11 +3306,13 @@
       <c r="B24" s="3">
         <v>44765</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3">
         <v>44766</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>31</v>
       </c>
       <c r="B26" s="3">
@@ -3323,7 +3330,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3">
         <v>44768</v>
       </c>
@@ -3331,7 +3338,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="3">
         <v>44769</v>
       </c>
@@ -3339,7 +3346,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3">
         <v>44770</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3">
         <v>44771</v>
       </c>
@@ -3355,7 +3362,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3">
         <v>44772</v>
       </c>
@@ -3363,7 +3370,7 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="3">
         <v>44773</v>
       </c>

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -344,7 +344,7 @@
     <t>1.了解EAP/RMS/APC/FDC系统</t>
   </si>
   <si>
-    <t>1.撰写总结</t>
+    <t>1.《gopl》p54-p55</t>
   </si>
 </sst>
 </file>
@@ -352,11 +352,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -383,27 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -412,24 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,21 +402,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,21 +424,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,14 +497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -518,6 +504,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -564,31 +564,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,49 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,97 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,11 +825,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,34 +881,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -912,142 +912,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1105,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,7 +1586,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1615,272 +1618,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="50"/>
-    <col min="3" max="3" width="68.6" style="50" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="50" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="50"/>
+    <col min="1" max="2" width="8.8" style="51"/>
+    <col min="3" max="3" width="68.6" style="51" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="52">
+      <c r="A2" s="53">
         <v>12</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="54">
         <v>44637</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54">
         <v>44638</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54">
         <v>44639</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" ht="45" spans="1:5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54">
         <v>44640</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="55">
+      <c r="A7" s="56">
         <v>13</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="54">
         <v>44641</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="55"/>
-      <c r="B8" s="53">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54">
         <v>44642</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54">
         <v>44643</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="55"/>
-      <c r="B10" s="53">
+      <c r="A10" s="56"/>
+      <c r="B10" s="54">
         <v>44644</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54">
         <v>44645</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54">
         <v>44646</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="55"/>
-      <c r="B13" s="53">
+      <c r="A13" s="56"/>
+      <c r="B13" s="54">
         <v>44647</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="56">
+      <c r="A14" s="57">
         <v>14</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="54">
         <v>44648</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="53">
+      <c r="A15" s="57"/>
+      <c r="B15" s="54">
         <v>44649</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53">
+      <c r="A16" s="57"/>
+      <c r="B16" s="54">
         <v>44650</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="53">
+      <c r="A17" s="57"/>
+      <c r="B17" s="54">
         <v>44651</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="57"/>
+      <c r="B18" s="58"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="57"/>
+      <c r="B19" s="58"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="57"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="57"/>
+      <c r="B22" s="58"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="57"/>
+      <c r="B24" s="58"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="57"/>
+      <c r="B25" s="58"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="57"/>
+      <c r="B26" s="58"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="57"/>
+      <c r="B27" s="58"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="57"/>
+      <c r="B28" s="58"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="57"/>
+      <c r="B29" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1930,10 +1933,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1945,14 +1948,14 @@
       </c>
     </row>
     <row r="3" ht="45" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
         <v>44653</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1960,132 +1963,132 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
         <v>44654</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>44655</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="27">
+      <c r="A6" s="47"/>
+      <c r="B6" s="28">
         <v>44656</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="27">
+      <c r="A7" s="47"/>
+      <c r="B7" s="28">
         <v>44657</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="27">
+      <c r="A8" s="47"/>
+      <c r="B8" s="28">
         <v>44658</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="27">
+      <c r="A9" s="47"/>
+      <c r="B9" s="28">
         <v>44659</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="27">
+      <c r="A10" s="47"/>
+      <c r="B10" s="28">
         <v>44660</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="27">
+      <c r="A11" s="47"/>
+      <c r="B11" s="28">
         <v>44661</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="47">
+      <c r="A12" s="48">
         <v>16</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <v>44662</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="27">
+      <c r="A13" s="48"/>
+      <c r="B13" s="28">
         <v>44663</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="27">
+      <c r="A14" s="48"/>
+      <c r="B14" s="28">
         <v>44664</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2093,164 +2096,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="27">
+      <c r="A15" s="48"/>
+      <c r="B15" s="28">
         <v>44665</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="27">
+      <c r="A16" s="48"/>
+      <c r="B16" s="28">
         <v>44666</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="27">
+      <c r="A17" s="48"/>
+      <c r="B17" s="28">
         <v>44667</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="27">
+      <c r="A18" s="48"/>
+      <c r="B18" s="28">
         <v>44668</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48">
+      <c r="A19" s="49">
         <v>17</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="28">
         <v>44669</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
-      <c r="B20" s="27">
+      <c r="A20" s="49"/>
+      <c r="B20" s="28">
         <v>44670</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
-      <c r="B21" s="27">
+      <c r="A21" s="49"/>
+      <c r="B21" s="28">
         <v>44671</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48"/>
-      <c r="B22" s="27">
+      <c r="A22" s="49"/>
+      <c r="B22" s="28">
         <v>44672</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27">
+      <c r="A23" s="49"/>
+      <c r="B23" s="28">
         <v>44673</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27">
+      <c r="A24" s="49"/>
+      <c r="B24" s="28">
         <v>44674</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27">
+      <c r="A25" s="49"/>
+      <c r="B25" s="28">
         <v>44675</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="49">
+      <c r="A26" s="50">
         <v>18</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="28">
         <v>44676</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="49"/>
-      <c r="B27" s="27">
+      <c r="A27" s="50"/>
+      <c r="B27" s="28">
         <v>44677</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2258,56 +2261,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="49"/>
-      <c r="B28" s="27">
+      <c r="A28" s="50"/>
+      <c r="B28" s="28">
         <v>44678</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="49"/>
-      <c r="B29" s="27">
+      <c r="A29" s="50"/>
+      <c r="B29" s="28">
         <v>44679</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="27">
+      <c r="A30" s="50"/>
+      <c r="B30" s="28">
         <v>44680</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="27">
+      <c r="A31" s="50"/>
+      <c r="B31" s="28">
         <v>44681</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2356,10 +2359,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2371,319 +2374,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27">
+      <c r="A7" s="31"/>
+      <c r="B7" s="28">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27">
+      <c r="A8" s="31"/>
+      <c r="B8" s="28">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="27">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>20</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="27">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="27">
+      <c r="A12" s="35"/>
+      <c r="B12" s="28">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="27">
+      <c r="A13" s="35"/>
+      <c r="B13" s="28">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="27">
+      <c r="A14" s="35"/>
+      <c r="B14" s="28">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27">
+      <c r="A15" s="35"/>
+      <c r="B15" s="28">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="35"/>
-      <c r="B16" s="27">
+      <c r="A16" s="36"/>
+      <c r="B16" s="28">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>21</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="28">
         <v>44697</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27">
+      <c r="A18" s="38"/>
+      <c r="B18" s="28">
         <v>44698</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27">
+      <c r="A19" s="38"/>
+      <c r="B19" s="28">
         <v>44699</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="27">
+      <c r="A20" s="38"/>
+      <c r="B20" s="28">
         <v>44700</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="27">
+      <c r="A21" s="38"/>
+      <c r="B21" s="28">
         <v>44701</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="27">
+      <c r="A22" s="38"/>
+      <c r="B22" s="28">
         <v>44702</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="38"/>
-      <c r="B23" s="27">
+      <c r="A23" s="39"/>
+      <c r="B23" s="28">
         <v>44703</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="39">
+      <c r="A24" s="40">
         <v>22</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="28">
         <v>44704</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="40"/>
-      <c r="B25" s="27">
+      <c r="A25" s="41"/>
+      <c r="B25" s="28">
         <v>44705</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="27">
+      <c r="A26" s="41"/>
+      <c r="B26" s="28">
         <v>44706</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="27">
+      <c r="A27" s="41"/>
+      <c r="B27" s="28">
         <v>44707</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="40"/>
-      <c r="B28" s="27">
+      <c r="A28" s="41"/>
+      <c r="B28" s="28">
         <v>44708</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="40"/>
-      <c r="B29" s="27">
+      <c r="A29" s="41"/>
+      <c r="B29" s="28">
         <v>44709</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="27">
+      <c r="A30" s="42"/>
+      <c r="B30" s="28">
         <v>44710</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="42">
+      <c r="A31" s="43">
         <v>23</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="28">
         <v>44711</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="43"/>
-      <c r="B32" s="27">
+      <c r="A32" s="44"/>
+      <c r="B32" s="28">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2693,8 +2696,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2740,10 +2743,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>23</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="22">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2752,8 +2755,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2762,8 +2765,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2772,8 +2775,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2782,8 +2785,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2792,10 +2795,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>24</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2804,8 +2807,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2814,8 +2817,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2824,8 +2827,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2836,8 +2839,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2846,8 +2849,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2856,8 +2859,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2869,7 +2872,7 @@
       <c r="A14" s="7">
         <v>25</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2879,7 +2882,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2889,7 +2892,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2899,7 +2902,7 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="8"/>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>44728</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2909,7 +2912,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>44729</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2919,7 +2922,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2929,7 +2932,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2941,7 +2944,7 @@
       <c r="A21" s="10">
         <v>26</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2951,7 +2954,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2961,7 +2964,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11"/>
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2971,7 +2974,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11"/>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2981,7 +2984,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11"/>
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2991,7 +2994,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11"/>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3001,7 +3004,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3013,7 +3016,7 @@
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3023,7 +3026,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15"/>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3033,22 +3036,22 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="15"/>
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="21">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3306,13 +3309,13 @@
       <c r="B24" s="3">
         <v>44765</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3">
         <v>44766</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>31</v>
       </c>
       <c r="B26" s="3">
@@ -3330,7 +3333,7 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="3">
         <v>44768</v>
       </c>
@@ -3338,7 +3341,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3">
         <v>44769</v>
       </c>
@@ -3346,7 +3349,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3">
         <v>44770</v>
       </c>
@@ -3354,7 +3357,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="3">
         <v>44771</v>
       </c>
@@ -3362,7 +3365,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="3">
         <v>44772</v>
       </c>
@@ -3370,7 +3373,7 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>44773</v>
       </c>

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -346,6 +346,14 @@
   <si>
     <t>1.《gopl》p54-p55</t>
   </si>
+  <si>
+    <t>1.《gopl》p56-p60
+2.《柔性制造单元的智能控制技术》p1-p45</t>
+  </si>
+  <si>
+    <t>1.撰写每日总结。
+2.《gopl》p57-</t>
+  </si>
 </sst>
 </file>
 
@@ -353,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -383,25 +391,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,16 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +429,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -453,14 +482,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -468,8 +489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,24 +512,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,13 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -564,25 +572,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,157 +710,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,32 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,7 +831,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,20 +868,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,142 +920,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,14 +1114,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3043,7 +3051,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="22">
         <v>44742</v>
       </c>
@@ -3071,8 +3079,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3309,27 +3317,31 @@
       <c r="B24" s="3">
         <v>44765</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="17"/>
+    <row r="25" ht="30" spans="1:4">
+      <c r="A25" s="16"/>
       <c r="B25" s="3">
         <v>44766</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="18">
+    <row r="26" ht="30" spans="1:4">
+      <c r="A26" s="17">
         <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>44767</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>1.撰写每日总结。
-2.《gopl》p57-</t>
+2.《gopl》p57-p72:共计16页</t>
   </si>
 </sst>
 </file>
@@ -361,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -392,7 +392,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +408,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,16 +467,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -436,96 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -572,49 +572,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,133 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,20 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,32 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -910,8 +881,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,144 +920,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,9 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,7 +1591,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1626,272 +1623,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.8" style="51"/>
-    <col min="3" max="3" width="68.6" style="51" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="51" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="51"/>
+    <col min="1" max="2" width="8.8" style="50"/>
+    <col min="3" max="3" width="68.6" style="50" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53">
+      <c r="A2" s="52">
         <v>12</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="53">
         <v>44637</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>44638</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53">
         <v>44639</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" ht="45" spans="1:5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53">
         <v>44640</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>13</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>44641</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54">
+      <c r="A8" s="55"/>
+      <c r="B8" s="53">
         <v>44642</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53">
         <v>44643</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="56"/>
-      <c r="B10" s="54">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53">
         <v>44644</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53">
         <v>44645</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53">
         <v>44646</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="56"/>
-      <c r="B13" s="54">
+      <c r="A13" s="55"/>
+      <c r="B13" s="53">
         <v>44647</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>14</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>44648</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="52"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54">
+      <c r="A15" s="56"/>
+      <c r="B15" s="53">
         <v>44649</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53">
         <v>44650</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="57"/>
-      <c r="B17" s="54">
+      <c r="A17" s="56"/>
+      <c r="B17" s="53">
         <v>44651</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="58"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="58"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="58"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="58"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="58"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="58"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="58"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="58"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="58"/>
+      <c r="B29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1941,10 +1938,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>44652</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1956,14 +1953,14 @@
       </c>
     </row>
     <row r="3" ht="45" spans="1:5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27">
         <v>44653</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1971,132 +1968,132 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27">
         <v>44654</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="30" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>44655</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="28">
+      <c r="A6" s="46"/>
+      <c r="B6" s="27">
         <v>44656</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="28">
+      <c r="A7" s="46"/>
+      <c r="B7" s="27">
         <v>44657</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="28">
+      <c r="A8" s="46"/>
+      <c r="B8" s="27">
         <v>44658</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="28">
+      <c r="A9" s="46"/>
+      <c r="B9" s="27">
         <v>44659</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="28">
+      <c r="A10" s="46"/>
+      <c r="B10" s="27">
         <v>44660</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="28">
+      <c r="A11" s="46"/>
+      <c r="B11" s="27">
         <v>44661</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>16</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>44662</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="28">
+      <c r="A13" s="47"/>
+      <c r="B13" s="27">
         <v>44663</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="28">
+      <c r="A14" s="47"/>
+      <c r="B14" s="27">
         <v>44664</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2104,164 +2101,164 @@
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="28">
+      <c r="A15" s="47"/>
+      <c r="B15" s="27">
         <v>44665</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="28">
+      <c r="A16" s="47"/>
+      <c r="B16" s="27">
         <v>44666</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="48"/>
-      <c r="B17" s="28">
+      <c r="A17" s="47"/>
+      <c r="B17" s="27">
         <v>44667</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="28">
+      <c r="A18" s="47"/>
+      <c r="B18" s="27">
         <v>44668</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>44669</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49"/>
-      <c r="B20" s="28">
+      <c r="A20" s="48"/>
+      <c r="B20" s="27">
         <v>44670</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="49"/>
-      <c r="B21" s="28">
+      <c r="A21" s="48"/>
+      <c r="B21" s="27">
         <v>44671</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="49"/>
-      <c r="B22" s="28">
+      <c r="A22" s="48"/>
+      <c r="B22" s="27">
         <v>44672</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="49"/>
-      <c r="B23" s="28">
+      <c r="A23" s="48"/>
+      <c r="B23" s="27">
         <v>44673</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="49"/>
-      <c r="B24" s="28">
+      <c r="A24" s="48"/>
+      <c r="B24" s="27">
         <v>44674</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="49"/>
-      <c r="B25" s="28">
+      <c r="A25" s="48"/>
+      <c r="B25" s="27">
         <v>44675</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>18</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>44676</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="50"/>
-      <c r="B27" s="28">
+      <c r="A27" s="49"/>
+      <c r="B27" s="27">
         <v>44677</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2269,56 +2266,56 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="28">
+      <c r="A28" s="49"/>
+      <c r="B28" s="27">
         <v>44678</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="50"/>
-      <c r="B29" s="28">
+      <c r="A29" s="49"/>
+      <c r="B29" s="27">
         <v>44679</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50"/>
-      <c r="B30" s="28">
+      <c r="A30" s="49"/>
+      <c r="B30" s="27">
         <v>44680</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="50"/>
-      <c r="B31" s="28">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27">
         <v>44681</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2367,10 +2364,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>44682</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2382,319 +2379,319 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>44683</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27">
         <v>44684</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="1" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28">
+      <c r="A5" s="30"/>
+      <c r="B5" s="27">
         <v>44685</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28">
+      <c r="A6" s="30"/>
+      <c r="B6" s="27">
         <v>44686</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="28">
+      <c r="A7" s="30"/>
+      <c r="B7" s="27">
         <v>44687</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28">
+      <c r="A8" s="30"/>
+      <c r="B8" s="27">
         <v>44688</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27">
         <v>44689</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>20</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>44690</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28">
+      <c r="A11" s="34"/>
+      <c r="B11" s="27">
         <v>44691</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27">
         <v>44692</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="28">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27">
         <v>44693</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28">
+      <c r="A14" s="34"/>
+      <c r="B14" s="27">
         <v>44694</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27">
         <v>44695</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="28">
+      <c r="A16" s="35"/>
+      <c r="B16" s="27">
         <v>44696</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>21</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>44697</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="27">
         <v>44698</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="28">
+      <c r="A19" s="37"/>
+      <c r="B19" s="27">
         <v>44699</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="28">
+      <c r="A20" s="37"/>
+      <c r="B20" s="27">
         <v>44700</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="28">
+      <c r="A21" s="37"/>
+      <c r="B21" s="27">
         <v>44701</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="28">
+      <c r="A22" s="37"/>
+      <c r="B22" s="27">
         <v>44702</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="28">
+      <c r="A23" s="38"/>
+      <c r="B23" s="27">
         <v>44703</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>44704</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="28">
+      <c r="A25" s="40"/>
+      <c r="B25" s="27">
         <v>44705</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="1" spans="1:5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="28">
+      <c r="A26" s="40"/>
+      <c r="B26" s="27">
         <v>44706</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="28">
+      <c r="A27" s="40"/>
+      <c r="B27" s="27">
         <v>44707</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="28">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27">
         <v>44708</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="28">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27">
         <v>44709</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="28">
+      <c r="A30" s="41"/>
+      <c r="B30" s="27">
         <v>44710</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>23</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>44711</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="28">
+      <c r="A32" s="43"/>
+      <c r="B32" s="27">
         <v>44712</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2704,8 +2701,8 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2751,10 +2748,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>23</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>44713</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2763,8 +2760,8 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21">
         <v>44714</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2773,8 +2770,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21">
         <v>44715</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2783,8 +2780,8 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21">
         <v>44716</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2793,8 +2790,8 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
         <v>44717</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2803,10 +2800,10 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>24</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>44718</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2815,8 +2812,8 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21">
         <v>44719</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2825,8 +2822,8 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21">
         <v>44720</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2835,8 +2832,8 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21">
         <v>44721</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2847,8 +2844,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21">
         <v>44722</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2857,8 +2854,8 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21">
         <v>44723</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2867,8 +2864,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21">
         <v>44724</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2880,7 +2877,7 @@
       <c r="A14" s="7">
         <v>25</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>44725</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2890,7 +2887,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>44726</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2900,7 +2897,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>44727</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2910,7 +2907,7 @@
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="8"/>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>44728</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2920,7 +2917,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>44729</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2930,7 +2927,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>44730</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2940,7 +2937,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>44731</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2952,7 +2949,7 @@
       <c r="A21" s="10">
         <v>26</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>44732</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2962,7 +2959,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>44733</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2972,7 +2969,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11"/>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>44734</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2982,7 +2979,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11"/>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>44735</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2992,7 +2989,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11"/>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>44736</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3002,7 +2999,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11"/>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>44737</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3012,7 +3009,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>44738</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3024,7 +3021,7 @@
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>44739</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3034,7 +3031,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15"/>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>44740</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3044,7 +3041,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="15"/>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>44741</v>
       </c>
       <c r="C30" s="4"/>
@@ -3052,14 +3049,14 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="16"/>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>44742</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3339,13 +3336,13 @@
       <c r="B26" s="3">
         <v>44767</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3">
         <v>44768</v>
       </c>
@@ -3353,7 +3350,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="3">
         <v>44769</v>
       </c>
@@ -3361,7 +3358,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3">
         <v>44770</v>
       </c>
@@ -3369,7 +3366,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3">
         <v>44771</v>
       </c>
@@ -3377,7 +3374,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3">
         <v>44772</v>
       </c>
@@ -3385,7 +3382,7 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="3">
         <v>44773</v>
       </c>

--- a/00.ledger.xlsx
+++ b/00.ledger.xlsx
@@ -13,13 +13,14 @@
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="6" sheetId="6" r:id="rId5"/>
     <sheet name="7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>序号</t>
   </si>
@@ -354,6 +355,12 @@
     <t>1.撰写每日总结。
 2.《gopl》p57-p72:共计16页</t>
   </si>
+  <si>
+    <t>出差</t>
+  </si>
+  <si>
+    <t>1.《gopl》p73-</t>
+  </si>
 </sst>
 </file>
 
@@ -361,10 +368,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -391,6 +398,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -398,9 +429,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,23 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,26 +489,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,16 +512,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,21 +526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -572,13 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,169 +621,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +840,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -844,21 +860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,8 +881,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -889,11 +892,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,11 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,142 +927,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3077,7 +3084,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3346,7 +3353,9 @@
       <c r="B27" s="3">
         <v>44768</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
@@ -3354,7 +3363,9 @@
       <c r="B28" s="3">
         <v>44769</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
@@ -3362,7 +3373,9 @@
       <c r="B29" s="3">
         <v>44770</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
@@ -3370,7 +3383,9 @@
       <c r="B30" s="3">
         <v>44771</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
@@ -3378,7 +3393,9 @@
       <c r="B31" s="3">
         <v>44772</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
@@ -3400,4 +3417,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>